--- a/Meta_Data/Dive_Totals.xlsx
+++ b/Meta_Data/Dive_Totals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFM_Stats\Meta_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2303AFD0-7210-4563-A9FB-57E43DD5AF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D6FBF3-0595-4D55-8A26-13725D07B64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33510" yWindow="3315" windowWidth="11925" windowHeight="14055" xr2:uid="{FF44082B-FF7B-4969-B17C-14E855942084}"/>
+    <workbookView xWindow="1440" yWindow="1515" windowWidth="21600" windowHeight="11340" xr2:uid="{FF44082B-FF7B-4969-B17C-14E855942084}"/>
   </bookViews>
   <sheets>
     <sheet name="Dive_Totals" sheetId="1" r:id="rId1"/>
@@ -459,23 +459,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA8B6CF-59BF-4377-81E1-AB2409A7CD8D}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23:O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,575 +496,683 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2005</v>
-      </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>62</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>1175</v>
-      </c>
-      <c r="F2">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2006</v>
-      </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>61</v>
-      </c>
-      <c r="D3">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>1055</v>
-      </c>
-      <c r="F3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2007</v>
-      </c>
-      <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>61</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>1026</v>
-      </c>
-      <c r="F4">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2008</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>62</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1007</v>
-      </c>
-      <c r="F5">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2009</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>1061</v>
-      </c>
-      <c r="F6">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2010</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>53</v>
-      </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1040</v>
-      </c>
-      <c r="F7">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2011</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>54</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>1057</v>
-      </c>
-      <c r="F8">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2012</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>1006</v>
-      </c>
-      <c r="F9">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2004</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>789</v>
+      </c>
+      <c r="F24">
+        <v>735</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>57</v>
+      </c>
+      <c r="O24">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2005</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>1175</v>
+      </c>
+      <c r="F25">
+        <v>1085</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>35</v>
+      </c>
+      <c r="O25">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2006</v>
+      </c>
+      <c r="B26">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1055</v>
+      </c>
+      <c r="F26">
+        <v>1000</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>106</v>
+      </c>
+      <c r="O26">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2007</v>
+      </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>1026</v>
+      </c>
+      <c r="F27">
+        <v>979</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>85</v>
+      </c>
+      <c r="O27">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2008</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>1007</v>
+      </c>
+      <c r="F28">
+        <v>919</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>98</v>
+      </c>
+      <c r="O28">
+        <v>6803</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2009</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>1061</v>
+      </c>
+      <c r="F29">
+        <v>1029</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>76</v>
+      </c>
+      <c r="O29">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2010</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>53</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>1040</v>
+      </c>
+      <c r="F30">
+        <v>998</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30">
+        <v>84</v>
+      </c>
+      <c r="O30">
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2011</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>1057</v>
+      </c>
+      <c r="F31">
+        <v>1064</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31">
+        <v>8</v>
+      </c>
+      <c r="N31">
+        <v>102</v>
+      </c>
+      <c r="O31">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2012</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>1006</v>
+      </c>
+      <c r="F32">
+        <v>974</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32">
+        <v>9</v>
+      </c>
+      <c r="N32">
+        <v>52</v>
+      </c>
+      <c r="O32">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2013</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
         <v>45</v>
       </c>
-      <c r="D10">
+      <c r="D33">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="E33">
         <v>938</v>
       </c>
-      <c r="F10">
+      <c r="F33">
         <v>863</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <v>82</v>
+      </c>
+      <c r="O33">
+        <v>4982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>2014</v>
       </c>
-      <c r="B11">
+      <c r="B34">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C34">
         <v>49</v>
       </c>
-      <c r="D11">
+      <c r="D34">
         <v>21</v>
       </c>
-      <c r="E11">
+      <c r="E34">
         <v>1040</v>
       </c>
-      <c r="F11">
+      <c r="F34">
         <v>1059</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="J34">
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34">
+        <v>11</v>
+      </c>
+      <c r="N34">
+        <v>60</v>
+      </c>
+      <c r="O34">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>2015</v>
       </c>
-      <c r="B12">
+      <c r="B35">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C35">
         <v>53</v>
       </c>
-      <c r="D12">
+      <c r="D35">
         <v>19</v>
       </c>
-      <c r="E12">
+      <c r="E35">
         <v>956</v>
       </c>
-      <c r="F12">
+      <c r="F35">
         <v>1005</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="J35">
+        <v>12</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>2016</v>
       </c>
-      <c r="B13">
+      <c r="B36">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C36">
         <v>53</v>
       </c>
-      <c r="D13">
+      <c r="D36">
         <v>19</v>
       </c>
-      <c r="E13">
+      <c r="E36">
         <v>758</v>
       </c>
-      <c r="F13">
+      <c r="F36">
         <v>832</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>2017</v>
       </c>
-      <c r="B14">
+      <c r="B37">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C37">
         <v>52</v>
       </c>
-      <c r="D14">
+      <c r="D37">
         <v>17</v>
       </c>
-      <c r="E14">
+      <c r="E37">
         <v>890</v>
       </c>
-      <c r="F14">
+      <c r="F37">
         <v>993</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <f>SUM(N24:N35)</f>
+        <v>847</v>
+      </c>
+      <c r="O37">
+        <f>SUM(O24:O35)</f>
+        <v>55991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>2018</v>
       </c>
-      <c r="B15">
+      <c r="B38">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C38">
         <v>50</v>
       </c>
-      <c r="D15">
+      <c r="D38">
         <v>16</v>
       </c>
-      <c r="E15">
+      <c r="E38">
         <v>905</v>
       </c>
-      <c r="F15">
+      <c r="F38">
         <v>995</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="J38">
+        <v>15</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>2019</v>
       </c>
-      <c r="B16">
+      <c r="B39">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C39">
         <v>50</v>
       </c>
-      <c r="D16">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E16">
+      <c r="E39">
         <v>847</v>
       </c>
-      <c r="F16">
+      <c r="F39">
         <v>933</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>57</v>
-      </c>
-      <c r="F18">
-        <v>4047</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>35</v>
-      </c>
-      <c r="F19">
-        <v>2543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>106</v>
-      </c>
-      <c r="F20">
-        <v>7232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>85</v>
-      </c>
-      <c r="F21">
-        <v>6122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>98</v>
-      </c>
-      <c r="F22">
-        <v>6803</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>76</v>
-      </c>
-      <c r="F23">
-        <v>5188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>84</v>
-      </c>
-      <c r="F24">
-        <v>5802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25">
-        <v>8</v>
-      </c>
-      <c r="E25">
-        <v>102</v>
-      </c>
-      <c r="F25">
-        <v>6063</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>52</v>
-      </c>
-      <c r="F26">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>82</v>
-      </c>
-      <c r="F27">
-        <v>4982</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="J39">
         <v>16</v>
       </c>
-      <c r="D28">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <v>60</v>
-      </c>
-      <c r="F28">
-        <v>3578</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J40">
         <v>17</v>
       </c>
-      <c r="D29">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="K40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J41">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="K41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J42">
         <v>19</v>
       </c>
-      <c r="E31">
-        <f>SUM(E18:E29)</f>
-        <v>847</v>
-      </c>
-      <c r="F31">
-        <f>SUM(F18:F29)</f>
-        <v>55991</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="K42" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>